--- a/data/pca/factorExposure/factorExposure_2016-09-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.005756893893544474</v>
+        <v>-0.01257086990794554</v>
       </c>
       <c r="C2">
-        <v>-0.05528233180090237</v>
+        <v>0.04427917168265934</v>
       </c>
       <c r="D2">
-        <v>0.03406064664312863</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06553957940574248</v>
+      </c>
+      <c r="E2">
+        <v>0.05090897938513519</v>
+      </c>
+      <c r="F2">
+        <v>-0.08329166586167416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.05882737652872918</v>
+        <v>-0.0304784203668652</v>
       </c>
       <c r="C3">
-        <v>-0.09327428506139365</v>
+        <v>0.08077447284814712</v>
       </c>
       <c r="D3">
-        <v>0.08009680387855771</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09198193989900463</v>
+      </c>
+      <c r="E3">
+        <v>0.05904005569907506</v>
+      </c>
+      <c r="F3">
+        <v>-0.01305566149196501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06054289752876449</v>
+        <v>-0.05688710371062355</v>
       </c>
       <c r="C4">
-        <v>-0.06163363429580718</v>
+        <v>0.06680381568251879</v>
       </c>
       <c r="D4">
-        <v>0.02517291349600235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05967608713491625</v>
+      </c>
+      <c r="E4">
+        <v>0.04919670525355799</v>
+      </c>
+      <c r="F4">
+        <v>-0.08728645115964531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.0350177996018729</v>
+        <v>-0.0336336685816849</v>
       </c>
       <c r="C6">
-        <v>-0.03853122016803744</v>
+        <v>0.0347993635658069</v>
       </c>
       <c r="D6">
-        <v>0.03044588967445355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06784553418399772</v>
+      </c>
+      <c r="E6">
+        <v>0.05911142557920032</v>
+      </c>
+      <c r="F6">
+        <v>-0.07372003271251218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01913537380016917</v>
+        <v>-0.01911202715757268</v>
       </c>
       <c r="C7">
-        <v>-0.03981673813126718</v>
+        <v>0.03782493169672545</v>
       </c>
       <c r="D7">
-        <v>-0.003727044536992988</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03720028384947441</v>
+      </c>
+      <c r="E7">
+        <v>0.03117739614803097</v>
+      </c>
+      <c r="F7">
+        <v>-0.1083413974778121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.002246462659504379</v>
+        <v>-0.003455917194772666</v>
       </c>
       <c r="C8">
-        <v>-0.0233815937911885</v>
+        <v>0.02797676446671526</v>
       </c>
       <c r="D8">
-        <v>0.03280322721931492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0364901380899371</v>
+      </c>
+      <c r="E8">
+        <v>0.0410606658286195</v>
+      </c>
+      <c r="F8">
+        <v>-0.05149668011356204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03172458897996196</v>
+        <v>-0.03595553180721856</v>
       </c>
       <c r="C9">
-        <v>-0.04419335321361522</v>
+        <v>0.05282140192969025</v>
       </c>
       <c r="D9">
-        <v>0.01300294451040888</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04498648276029434</v>
+      </c>
+      <c r="E9">
+        <v>0.04218852272508967</v>
+      </c>
+      <c r="F9">
+        <v>-0.09215106156739439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07375456016746398</v>
+        <v>-0.1009529292389875</v>
       </c>
       <c r="C10">
-        <v>0.1925974729738078</v>
+        <v>-0.1928923740660144</v>
       </c>
       <c r="D10">
-        <v>0.005717950031831353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0003963278855452118</v>
+      </c>
+      <c r="E10">
+        <v>0.04566058510491127</v>
+      </c>
+      <c r="F10">
+        <v>-0.04092630300107773</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03699089454033201</v>
+        <v>-0.03570371003818806</v>
       </c>
       <c r="C11">
-        <v>-0.05562974180446534</v>
+        <v>0.05165317177395449</v>
       </c>
       <c r="D11">
-        <v>0.006120359723119925</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0341392272807919</v>
+      </c>
+      <c r="E11">
+        <v>0.004958632097326466</v>
+      </c>
+      <c r="F11">
+        <v>-0.06576132336509535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.0339600775181713</v>
+        <v>-0.03634313131214379</v>
       </c>
       <c r="C12">
-        <v>-0.04794406370772383</v>
+        <v>0.04799556406130978</v>
       </c>
       <c r="D12">
-        <v>0.002245113445193641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02567749723804648</v>
+      </c>
+      <c r="E12">
+        <v>0.01409033175468614</v>
+      </c>
+      <c r="F12">
+        <v>-0.06902178810438235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01102488859902502</v>
+        <v>-0.01188518728581837</v>
       </c>
       <c r="C13">
-        <v>-0.0425280868302947</v>
+        <v>0.04169542532924968</v>
       </c>
       <c r="D13">
-        <v>0.01721323102141634</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0628709903878881</v>
+      </c>
+      <c r="E13">
+        <v>0.06095786790191161</v>
+      </c>
+      <c r="F13">
+        <v>-0.1134778588657711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.006235230937030581</v>
+        <v>-0.005273212982171898</v>
       </c>
       <c r="C14">
-        <v>-0.03246598800526287</v>
+        <v>0.03054543540034469</v>
       </c>
       <c r="D14">
-        <v>-0.01574558266102273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02799697703525822</v>
+      </c>
+      <c r="E14">
+        <v>0.02597719527581627</v>
+      </c>
+      <c r="F14">
+        <v>-0.09749550680936069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001150012674109051</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.003087145956690421</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.004359363129185523</v>
+      </c>
+      <c r="E15">
+        <v>-6.721877167243832e-05</v>
+      </c>
+      <c r="F15">
+        <v>-0.002981696562343035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03375993112792094</v>
+        <v>-0.03312617135450455</v>
       </c>
       <c r="C16">
-        <v>-0.04356796437972666</v>
+        <v>0.04604358327893895</v>
       </c>
       <c r="D16">
-        <v>0.007074613834750854</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02871352010599511</v>
+      </c>
+      <c r="E16">
+        <v>0.01944829664073484</v>
+      </c>
+      <c r="F16">
+        <v>-0.07015469967636907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02139423550741627</v>
+        <v>-0.01556526140656835</v>
       </c>
       <c r="C19">
-        <v>-0.06279199614219654</v>
+        <v>0.05070787247830203</v>
       </c>
       <c r="D19">
-        <v>0.07113118351922386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09707034769497704</v>
+      </c>
+      <c r="E19">
+        <v>0.07823608745413781</v>
+      </c>
+      <c r="F19">
+        <v>-0.09165960354737103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01287830068848279</v>
+        <v>-0.01291440530798619</v>
       </c>
       <c r="C20">
-        <v>-0.04375035686270277</v>
+        <v>0.04120434253883137</v>
       </c>
       <c r="D20">
-        <v>0.01814648214577924</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04108958589950262</v>
+      </c>
+      <c r="E20">
+        <v>0.05553943967291864</v>
+      </c>
+      <c r="F20">
+        <v>-0.08965544098144453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.007844817648047949</v>
+        <v>-0.008042303760709545</v>
       </c>
       <c r="C21">
-        <v>-0.04746064177524999</v>
+        <v>0.04456257328182309</v>
       </c>
       <c r="D21">
-        <v>0.03572221611836952</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06983935432319514</v>
+      </c>
+      <c r="E21">
+        <v>0.07356895892092299</v>
+      </c>
+      <c r="F21">
+        <v>-0.134112056043846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001394360891917804</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02285733614632705</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03493629631369012</v>
+      </c>
+      <c r="E22">
+        <v>0.01832763150472538</v>
+      </c>
+      <c r="F22">
+        <v>-0.02154017847403212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.00146187588123941</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02298046247145203</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03462677557077247</v>
+      </c>
+      <c r="E23">
+        <v>0.01861801133266642</v>
+      </c>
+      <c r="F23">
+        <v>-0.0214171995570477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.0289187167166926</v>
+        <v>-0.03270718864844537</v>
       </c>
       <c r="C24">
-        <v>-0.04908660452542967</v>
+        <v>0.05388078754315041</v>
       </c>
       <c r="D24">
-        <v>0.003089218851244849</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02721537987095691</v>
+      </c>
+      <c r="E24">
+        <v>0.01692098924319089</v>
+      </c>
+      <c r="F24">
+        <v>-0.07888171843833165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04210516134316292</v>
+        <v>-0.04248216018433167</v>
       </c>
       <c r="C25">
-        <v>-0.06050328796207505</v>
+        <v>0.05794320711450782</v>
       </c>
       <c r="D25">
-        <v>-0.00703744535724168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.024762338389742</v>
+      </c>
+      <c r="E25">
+        <v>0.01128513013269728</v>
+      </c>
+      <c r="F25">
+        <v>-0.08016856183536433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01190384170219298</v>
+        <v>-0.01377403298582182</v>
       </c>
       <c r="C26">
-        <v>-0.01547504147095815</v>
+        <v>0.01654451299516131</v>
       </c>
       <c r="D26">
-        <v>0.002233416430368898</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02670971218470427</v>
+      </c>
+      <c r="E26">
+        <v>0.0287712861818605</v>
+      </c>
+      <c r="F26">
+        <v>-0.07497674976041947</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.08832964406680648</v>
+        <v>-0.1360639142551231</v>
       </c>
       <c r="C28">
-        <v>0.2247545448127967</v>
+        <v>-0.2420826503000164</v>
       </c>
       <c r="D28">
-        <v>0.001262398197597206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01527946487140729</v>
+      </c>
+      <c r="E28">
+        <v>0.04665468539675891</v>
+      </c>
+      <c r="F28">
+        <v>-0.05610433924232697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.007700793420714959</v>
+        <v>-0.006033609486502203</v>
       </c>
       <c r="C29">
-        <v>-0.02598210653676276</v>
+        <v>0.02634367480997701</v>
       </c>
       <c r="D29">
-        <v>-0.01606551412606339</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0220459134129482</v>
+      </c>
+      <c r="E29">
+        <v>0.02772008898568607</v>
+      </c>
+      <c r="F29">
+        <v>-0.08950423268367221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05097953385202612</v>
+        <v>-0.04129245828868577</v>
       </c>
       <c r="C30">
-        <v>-0.05863353112960436</v>
+        <v>0.06503492763867007</v>
       </c>
       <c r="D30">
-        <v>0.04988076054387094</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1075972841463086</v>
+      </c>
+      <c r="E30">
+        <v>0.03973040028872706</v>
+      </c>
+      <c r="F30">
+        <v>-0.1049522424391443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04897153365360346</v>
+        <v>-0.05421142341660316</v>
       </c>
       <c r="C31">
-        <v>-0.03301032281050616</v>
+        <v>0.05463579007478531</v>
       </c>
       <c r="D31">
-        <v>-0.01249264404819213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.008651021420502296</v>
+      </c>
+      <c r="E31">
+        <v>0.04884423562346444</v>
+      </c>
+      <c r="F31">
+        <v>-0.08315795812961847</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.008398956550943044</v>
+        <v>-0.003784167935504075</v>
       </c>
       <c r="C32">
-        <v>-0.04490589086555072</v>
+        <v>0.03359481252052422</v>
       </c>
       <c r="D32">
-        <v>0.02351118496682931</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04976881882428921</v>
+      </c>
+      <c r="E32">
+        <v>0.02198487279262788</v>
+      </c>
+      <c r="F32">
+        <v>-0.07372368407246956</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02547520791427205</v>
+        <v>-0.02387415210812032</v>
       </c>
       <c r="C33">
-        <v>-0.05966281401403775</v>
+        <v>0.05493634588099762</v>
       </c>
       <c r="D33">
-        <v>0.03204598402986745</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08135330331760103</v>
+      </c>
+      <c r="E33">
+        <v>0.04930314346072753</v>
+      </c>
+      <c r="F33">
+        <v>-0.1296017286420517</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04441133285808588</v>
+        <v>-0.04094273803650165</v>
       </c>
       <c r="C34">
-        <v>-0.06076825860424623</v>
+        <v>0.06378689879480193</v>
       </c>
       <c r="D34">
-        <v>-0.00363666427939698</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03492535725431541</v>
+      </c>
+      <c r="E34">
+        <v>-0.00669525931218581</v>
+      </c>
+      <c r="F34">
+        <v>-0.07611737083596348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.007889448381291818</v>
+        <v>-0.01315744892114513</v>
       </c>
       <c r="C36">
-        <v>-0.01384392568513305</v>
+        <v>0.01239881647039956</v>
       </c>
       <c r="D36">
-        <v>0.001226380520891281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02862433955718672</v>
+      </c>
+      <c r="E36">
+        <v>0.03448140449167919</v>
+      </c>
+      <c r="F36">
+        <v>-0.08227210820346648</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02726013704667653</v>
+        <v>-0.02387853705160111</v>
       </c>
       <c r="C38">
-        <v>-0.02891058400786206</v>
+        <v>0.02520932140989816</v>
       </c>
       <c r="D38">
-        <v>0.0005216450116101947</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02653663293783716</v>
+      </c>
+      <c r="E38">
+        <v>0.0329154738453212</v>
+      </c>
+      <c r="F38">
+        <v>-0.06894199169708144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.03965100686788765</v>
+        <v>-0.03852900527516175</v>
       </c>
       <c r="C39">
-        <v>-0.07222878967638478</v>
+        <v>0.06878909599389389</v>
       </c>
       <c r="D39">
-        <v>0.02001503916229549</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05300348070607643</v>
+      </c>
+      <c r="E39">
+        <v>0.01933381522392318</v>
+      </c>
+      <c r="F39">
+        <v>-0.09192377425181295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01418608604003863</v>
+        <v>-0.01501977697394977</v>
       </c>
       <c r="C40">
-        <v>-0.03716972527480167</v>
+        <v>0.04033189556625121</v>
       </c>
       <c r="D40">
-        <v>0.03261929457985639</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03888451816581792</v>
+      </c>
+      <c r="E40">
+        <v>0.06868984202270084</v>
+      </c>
+      <c r="F40">
+        <v>-0.08834572003198035</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.008388475223612626</v>
+        <v>-0.01740575931431181</v>
       </c>
       <c r="C41">
-        <v>-0.008780767692575592</v>
+        <v>0.006550391390767091</v>
       </c>
       <c r="D41">
-        <v>0.001187026611732276</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01685310709728491</v>
+      </c>
+      <c r="E41">
+        <v>0.03721930516346719</v>
+      </c>
+      <c r="F41">
+        <v>-0.0702508455402993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.001725502321584864</v>
+        <v>-0.001224229560078273</v>
       </c>
       <c r="C42">
-        <v>-0.005011136969142188</v>
+        <v>0.002693271541452829</v>
       </c>
       <c r="D42">
-        <v>0.007357568988391147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.0007156856452362353</v>
+      </c>
+      <c r="E42">
+        <v>0.006708362992432031</v>
+      </c>
+      <c r="F42">
+        <v>0.006014305357798833</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03171286204140401</v>
+        <v>-0.02866578039606349</v>
       </c>
       <c r="C43">
-        <v>-0.02463244473371726</v>
+        <v>0.02151901400681418</v>
       </c>
       <c r="D43">
-        <v>0.01302102363154543</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04048257181305196</v>
+      </c>
+      <c r="E43">
+        <v>0.04316863978641788</v>
+      </c>
+      <c r="F43">
+        <v>-0.08435267522404041</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.01712162245752601</v>
+        <v>-0.01354556584716991</v>
       </c>
       <c r="C44">
-        <v>-0.05652546081333011</v>
+        <v>0.05254332109694085</v>
       </c>
       <c r="D44">
-        <v>0.01518802825923217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03968195407464974</v>
+      </c>
+      <c r="E44">
+        <v>0.05552115219835197</v>
+      </c>
+      <c r="F44">
+        <v>-0.08963652093241593</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0006666206497984233</v>
+        <v>-0.007185152273425244</v>
       </c>
       <c r="C46">
-        <v>-0.02338612820874305</v>
+        <v>0.02543326439498485</v>
       </c>
       <c r="D46">
-        <v>-0.02036495694296158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.013656969196896</v>
+      </c>
+      <c r="E46">
+        <v>0.03368939165982922</v>
+      </c>
+      <c r="F46">
+        <v>-0.104074652351596</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.08009539239417027</v>
+        <v>-0.08599804562485419</v>
       </c>
       <c r="C47">
-        <v>-0.07236683922976703</v>
+        <v>0.08059767814502869</v>
       </c>
       <c r="D47">
-        <v>-0.008028127576953478</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01658061184541063</v>
+      </c>
+      <c r="E47">
+        <v>0.05431096497316763</v>
+      </c>
+      <c r="F47">
+        <v>-0.07958701619044826</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01711458918638897</v>
+        <v>-0.015410804065859</v>
       </c>
       <c r="C48">
-        <v>-0.01241159190048409</v>
+        <v>0.01801619974184048</v>
       </c>
       <c r="D48">
-        <v>-0.006616459032551099</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01881814915281987</v>
+      </c>
+      <c r="E48">
+        <v>0.04480003525442046</v>
+      </c>
+      <c r="F48">
+        <v>-0.09632550055601129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08515113938425986</v>
+        <v>-0.07119328687302884</v>
       </c>
       <c r="C50">
-        <v>-0.0690459627443213</v>
+        <v>0.07058228469371892</v>
       </c>
       <c r="D50">
-        <v>-0.01974555381591926</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.005758764886775811</v>
+      </c>
+      <c r="E50">
+        <v>0.05147126834712375</v>
+      </c>
+      <c r="F50">
+        <v>-0.07201417546783094</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01154115687760797</v>
+        <v>-0.01002785809564168</v>
       </c>
       <c r="C51">
-        <v>-0.04658251574710066</v>
+        <v>0.0341698951584314</v>
       </c>
       <c r="D51">
-        <v>0.006389169778961535</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04897269084379682</v>
+      </c>
+      <c r="E51">
+        <v>0.02076636152389324</v>
+      </c>
+      <c r="F51">
+        <v>-0.08484942839625781</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.08227270147866031</v>
+        <v>-0.09228429459535527</v>
       </c>
       <c r="C53">
-        <v>-0.07327521196519439</v>
+        <v>0.08794836838634015</v>
       </c>
       <c r="D53">
-        <v>-0.02671568760836603</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0380576895244779</v>
+      </c>
+      <c r="E53">
+        <v>0.05286977514125871</v>
+      </c>
+      <c r="F53">
+        <v>-0.08965593814363527</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03145958454646797</v>
+        <v>-0.02757059388102524</v>
       </c>
       <c r="C54">
-        <v>-0.02217797658520574</v>
+        <v>0.02710151206727057</v>
       </c>
       <c r="D54">
-        <v>0.001229364373393931</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03227472758192456</v>
+      </c>
+      <c r="E54">
+        <v>0.04005021637039319</v>
+      </c>
+      <c r="F54">
+        <v>-0.09704092618604898</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.0724953729604646</v>
+        <v>-0.08357151134516122</v>
       </c>
       <c r="C55">
-        <v>-0.06454004080209359</v>
+        <v>0.07207645811763605</v>
       </c>
       <c r="D55">
-        <v>-0.03073134136930968</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04540386797634555</v>
+      </c>
+      <c r="E55">
+        <v>0.04381311853780691</v>
+      </c>
+      <c r="F55">
+        <v>-0.06598655827000678</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1481405697141426</v>
+        <v>-0.1445888284621696</v>
       </c>
       <c r="C56">
-        <v>-0.09338678307203035</v>
+        <v>0.1066811088566944</v>
       </c>
       <c r="D56">
-        <v>-0.03382691195310664</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04845343916443465</v>
+      </c>
+      <c r="E56">
+        <v>0.04698334633677674</v>
+      </c>
+      <c r="F56">
+        <v>-0.05021719217643159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.001042505932081382</v>
+        <v>-0.0003191902251263105</v>
       </c>
       <c r="C57">
-        <v>-0.002816932614209317</v>
+        <v>0.001616472204092678</v>
       </c>
       <c r="D57">
-        <v>0.01842908577703952</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01616613426286399</v>
+      </c>
+      <c r="E57">
+        <v>0.007623733994154617</v>
+      </c>
+      <c r="F57">
+        <v>-0.01042406067140921</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0721679304048967</v>
+        <v>-0.02791687779972082</v>
       </c>
       <c r="C58">
-        <v>-0.0233622646657847</v>
+        <v>0.04064732583363461</v>
       </c>
       <c r="D58">
-        <v>0.9361901811585087</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4896924844996909</v>
+      </c>
+      <c r="E58">
+        <v>0.6900192549429226</v>
+      </c>
+      <c r="F58">
+        <v>0.4534016381968152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.138242331105451</v>
+        <v>-0.148091533403238</v>
       </c>
       <c r="C59">
-        <v>0.2030775481935531</v>
+        <v>-0.1860547194784946</v>
       </c>
       <c r="D59">
-        <v>0.01525057396016351</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0317353596280209</v>
+      </c>
+      <c r="E59">
+        <v>0.02563560532414345</v>
+      </c>
+      <c r="F59">
+        <v>-0.02241794180479582</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3117094632642981</v>
+        <v>-0.2834259305888444</v>
       </c>
       <c r="C60">
-        <v>-0.09626536151645486</v>
+        <v>0.09883207722179173</v>
       </c>
       <c r="D60">
-        <v>0.01021893224249816</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2031169015360799</v>
+      </c>
+      <c r="E60">
+        <v>-0.274116360316327</v>
+      </c>
+      <c r="F60">
+        <v>0.1175939839540864</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03806090604935301</v>
+        <v>-0.03973826262911467</v>
       </c>
       <c r="C61">
-        <v>-0.06502905785512025</v>
+        <v>0.06299715443237805</v>
       </c>
       <c r="D61">
-        <v>0.01090218616647035</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0465924783131832</v>
+      </c>
+      <c r="E61">
+        <v>0.02237398368556459</v>
+      </c>
+      <c r="F61">
+        <v>-0.08222774694548657</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01410445769049912</v>
+        <v>-0.01480398161535984</v>
       </c>
       <c r="C63">
-        <v>-0.03570449420276151</v>
+        <v>0.03268576714888032</v>
       </c>
       <c r="D63">
-        <v>-0.001095839369896991</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02367632082754896</v>
+      </c>
+      <c r="E63">
+        <v>0.03747255127914226</v>
+      </c>
+      <c r="F63">
+        <v>-0.07752281396951727</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05112997960310871</v>
+        <v>-0.05484744320841613</v>
       </c>
       <c r="C64">
-        <v>-0.03696486515149443</v>
+        <v>0.0543340615019748</v>
       </c>
       <c r="D64">
-        <v>-0.009967154231517695</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006806630392841943</v>
+      </c>
+      <c r="E64">
+        <v>0.01974300212484036</v>
+      </c>
+      <c r="F64">
+        <v>-0.08551768924103764</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09457390998625144</v>
+        <v>-0.06674593880561969</v>
       </c>
       <c r="C65">
-        <v>-0.04035640437509673</v>
+        <v>0.03833468307339556</v>
       </c>
       <c r="D65">
-        <v>0.04022027447450319</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08603898670847937</v>
+      </c>
+      <c r="E65">
+        <v>0.03304332372600369</v>
+      </c>
+      <c r="F65">
+        <v>-0.02217047817239566</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06059814435590347</v>
+        <v>-0.05084502334067226</v>
       </c>
       <c r="C66">
-        <v>-0.1044097928675772</v>
+        <v>0.09151721944178542</v>
       </c>
       <c r="D66">
-        <v>0.03240364800230435</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08024096407534101</v>
+      </c>
+      <c r="E66">
+        <v>0.02208972449194754</v>
+      </c>
+      <c r="F66">
+        <v>-0.09354960919393841</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0495833025914707</v>
+        <v>-0.04611260392728168</v>
       </c>
       <c r="C67">
-        <v>-0.03372302170410698</v>
+        <v>0.03087771134855682</v>
       </c>
       <c r="D67">
-        <v>-0.005641579271633568</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01249408910801108</v>
+      </c>
+      <c r="E67">
+        <v>0.01589788025835356</v>
+      </c>
+      <c r="F67">
+        <v>-0.05330245344570206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1180518947360567</v>
+        <v>-0.1533292913997616</v>
       </c>
       <c r="C68">
-        <v>0.2874739618847263</v>
+        <v>-0.2508610871809199</v>
       </c>
       <c r="D68">
-        <v>-0.001712988679243889</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01740246586389184</v>
+      </c>
+      <c r="E68">
+        <v>0.04252269400555484</v>
+      </c>
+      <c r="F68">
+        <v>-0.0184760515065345</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0826036512451043</v>
+        <v>-0.08546675494235585</v>
       </c>
       <c r="C69">
-        <v>-0.07015943824746815</v>
+        <v>0.08740549046036365</v>
       </c>
       <c r="D69">
-        <v>-0.03449637266308275</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0124313566017735</v>
+      </c>
+      <c r="E69">
+        <v>0.03069076319267697</v>
+      </c>
+      <c r="F69">
+        <v>-0.09618710375743243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1193526670148496</v>
+        <v>-0.1453127358325997</v>
       </c>
       <c r="C71">
-        <v>0.2493509275511679</v>
+        <v>-0.2320710341317552</v>
       </c>
       <c r="D71">
-        <v>0.02482252709935244</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01628986797578709</v>
+      </c>
+      <c r="E71">
+        <v>0.06122466376414199</v>
+      </c>
+      <c r="F71">
+        <v>-0.05678933319004032</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08387793272008866</v>
+        <v>-0.09573175320603032</v>
       </c>
       <c r="C72">
-        <v>-0.05056419869792424</v>
+        <v>0.05764597288144836</v>
       </c>
       <c r="D72">
-        <v>-0.01171487959809367</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01915399238221868</v>
+      </c>
+      <c r="E72">
+        <v>0.00937974154677328</v>
+      </c>
+      <c r="F72">
+        <v>-0.08068237665522632</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4388689708027844</v>
+        <v>-0.3467635239257868</v>
       </c>
       <c r="C73">
-        <v>-0.06491267318874094</v>
+        <v>0.07901179849448442</v>
       </c>
       <c r="D73">
-        <v>0.08733202216053201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4316904746201204</v>
+      </c>
+      <c r="E73">
+        <v>-0.4836925224517352</v>
+      </c>
+      <c r="F73">
+        <v>0.2932393610905702</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1111099067725186</v>
+        <v>-0.1101088831550012</v>
       </c>
       <c r="C74">
-        <v>-0.1092863070440142</v>
+        <v>0.1014296465918427</v>
       </c>
       <c r="D74">
-        <v>-0.00692093836523514</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02853158119993449</v>
+      </c>
+      <c r="E74">
+        <v>0.06235146537344018</v>
+      </c>
+      <c r="F74">
+        <v>-0.05679939218268692</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2493628154354963</v>
+        <v>-0.2548304630717732</v>
       </c>
       <c r="C75">
-        <v>-0.1200144233326389</v>
+        <v>0.1389023044326091</v>
       </c>
       <c r="D75">
-        <v>-0.04852157692549977</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1277066807623499</v>
+      </c>
+      <c r="E75">
+        <v>0.07344063080213814</v>
+      </c>
+      <c r="F75">
+        <v>-0.01535229480837534</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1125878059282808</v>
+        <v>-0.1271943211115002</v>
       </c>
       <c r="C76">
-        <v>-0.09295850573188877</v>
+        <v>0.1038907115407892</v>
       </c>
       <c r="D76">
-        <v>-0.02599814061297952</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05667541895183824</v>
+      </c>
+      <c r="E76">
+        <v>0.06695548338204792</v>
+      </c>
+      <c r="F76">
+        <v>-0.0718764184611578</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07590250084246848</v>
+        <v>-0.0613275284892518</v>
       </c>
       <c r="C77">
-        <v>-0.0583604281933862</v>
+        <v>0.07006459981717698</v>
       </c>
       <c r="D77">
-        <v>0.05093360149662869</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06543290392565737</v>
+      </c>
+      <c r="E77">
+        <v>0.06623113220905948</v>
+      </c>
+      <c r="F77">
+        <v>-0.1179260547836027</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04493527507777572</v>
+        <v>-0.04340236467722073</v>
       </c>
       <c r="C78">
-        <v>-0.04477770867513467</v>
+        <v>0.0554020484514065</v>
       </c>
       <c r="D78">
-        <v>0.01501777018285833</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07250879795220472</v>
+      </c>
+      <c r="E78">
+        <v>0.02092361297977876</v>
+      </c>
+      <c r="F78">
+        <v>-0.1041452517784262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02437815006900356</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03839383363123217</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05920610948967889</v>
+      </c>
+      <c r="E79">
+        <v>0.05178294062101689</v>
+      </c>
+      <c r="F79">
+        <v>-0.04095261498387758</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0458129003409992</v>
+        <v>-0.03433062165718725</v>
       </c>
       <c r="C80">
-        <v>-0.05608262741276637</v>
+        <v>0.05497822788782727</v>
       </c>
       <c r="D80">
-        <v>0.02540899488966123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04746041867238845</v>
+      </c>
+      <c r="E80">
+        <v>0.009228320718818373</v>
+      </c>
+      <c r="F80">
+        <v>-0.03461835143664661</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1409068113236278</v>
+        <v>-0.1392407363085482</v>
       </c>
       <c r="C81">
-        <v>-0.07506531104793578</v>
+        <v>0.09826417340888294</v>
       </c>
       <c r="D81">
-        <v>-0.02287824037662772</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09416265304371688</v>
+      </c>
+      <c r="E81">
+        <v>0.08165372810216075</v>
+      </c>
+      <c r="F81">
+        <v>-0.02078513445909671</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.135952803908511</v>
+        <v>-0.1974064954318099</v>
       </c>
       <c r="C82">
-        <v>-0.05806065799633677</v>
+        <v>0.1392251985449043</v>
       </c>
       <c r="D82">
-        <v>-0.1185413481897665</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2260236135712043</v>
+      </c>
+      <c r="E82">
+        <v>0.01912876531399278</v>
+      </c>
+      <c r="F82">
+        <v>-0.08380330324677532</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02771599806978986</v>
+        <v>-0.02720766923597006</v>
       </c>
       <c r="C83">
-        <v>-0.02026392061802591</v>
+        <v>0.04034983684784636</v>
       </c>
       <c r="D83">
-        <v>0.01573347193153094</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03561643427313343</v>
+      </c>
+      <c r="E83">
+        <v>0.009054585342716834</v>
+      </c>
+      <c r="F83">
+        <v>-0.04929475625757817</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2260281318603767</v>
+        <v>-0.2036382199049832</v>
       </c>
       <c r="C85">
-        <v>-0.1093951665118457</v>
+        <v>0.1231334864640135</v>
       </c>
       <c r="D85">
-        <v>-0.09180163645233679</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1024539604981444</v>
+      </c>
+      <c r="E85">
+        <v>0.004758715661520355</v>
+      </c>
+      <c r="F85">
+        <v>0.01757876644772989</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.004276900959447705</v>
+        <v>-0.01176301501835113</v>
       </c>
       <c r="C86">
-        <v>-0.02559144682001985</v>
+        <v>0.03066460850526763</v>
       </c>
       <c r="D86">
-        <v>0.02595893045770671</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0713943536505762</v>
+      </c>
+      <c r="E86">
+        <v>0.04217681904644208</v>
+      </c>
+      <c r="F86">
+        <v>-0.1381686172964313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01783949840949781</v>
+        <v>-0.02088949021595352</v>
       </c>
       <c r="C87">
-        <v>-0.01644287502710164</v>
+        <v>0.02209075649655495</v>
       </c>
       <c r="D87">
-        <v>0.09026013692568666</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09286903423902296</v>
+      </c>
+      <c r="E87">
+        <v>0.08718441147620755</v>
+      </c>
+      <c r="F87">
+        <v>-0.09589326937247296</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1052210717202155</v>
+        <v>-0.09083577402044872</v>
       </c>
       <c r="C88">
-        <v>-0.06988567751103869</v>
+        <v>0.06332747625786357</v>
       </c>
       <c r="D88">
-        <v>-0.01557341419189634</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01157861772083348</v>
+      </c>
+      <c r="E88">
+        <v>0.03477543548463494</v>
+      </c>
+      <c r="F88">
+        <v>-0.07179448224619317</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1820426562703616</v>
+        <v>-0.2266074576830202</v>
       </c>
       <c r="C89">
-        <v>0.3729312170548584</v>
+        <v>-0.3767944202538235</v>
       </c>
       <c r="D89">
-        <v>-0.02568689367469769</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01482346017381188</v>
+      </c>
+      <c r="E89">
+        <v>0.04038347476700186</v>
+      </c>
+      <c r="F89">
+        <v>-0.09921682411649836</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1771669851998663</v>
+        <v>-0.2045940609015706</v>
       </c>
       <c r="C90">
-        <v>0.3462471107191318</v>
+        <v>-0.3132970334328889</v>
       </c>
       <c r="D90">
-        <v>-0.009783114685740888</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01215551473557057</v>
+      </c>
+      <c r="E90">
+        <v>0.06689484465749876</v>
+      </c>
+      <c r="F90">
+        <v>-0.04856907659060489</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1932152520867637</v>
+        <v>-0.1854827600716142</v>
       </c>
       <c r="C91">
-        <v>-0.1162303939474718</v>
+        <v>0.1414147301518449</v>
       </c>
       <c r="D91">
-        <v>-0.05118141650214805</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.104450710673638</v>
+      </c>
+      <c r="E91">
+        <v>0.06497419971480958</v>
+      </c>
+      <c r="F91">
+        <v>-0.0366060124412295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1723251216807225</v>
+        <v>-0.1844754668518821</v>
       </c>
       <c r="C92">
-        <v>0.2916803613329675</v>
+        <v>-0.279405756804381</v>
       </c>
       <c r="D92">
-        <v>-0.01329591189998885</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.003188839824543748</v>
+      </c>
+      <c r="E92">
+        <v>0.07126954170455001</v>
+      </c>
+      <c r="F92">
+        <v>-0.07853638084292849</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.2049565241874153</v>
+        <v>-0.229159620727323</v>
       </c>
       <c r="C93">
-        <v>0.3339126909130079</v>
+        <v>-0.3178237589044735</v>
       </c>
       <c r="D93">
-        <v>-0.003245053531613063</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0003890778943076666</v>
+      </c>
+      <c r="E93">
+        <v>0.05178857934198836</v>
+      </c>
+      <c r="F93">
+        <v>-0.0450540519901124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3153831308810459</v>
+        <v>-0.3403359292180289</v>
       </c>
       <c r="C94">
-        <v>-0.1733119667282232</v>
+        <v>0.1913424068125796</v>
       </c>
       <c r="D94">
-        <v>-0.186971713291115</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4754324295994902</v>
+      </c>
+      <c r="E94">
+        <v>0.1519349711120892</v>
+      </c>
+      <c r="F94">
+        <v>0.4405523603740575</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09410334222250348</v>
+        <v>-0.08296225331359075</v>
       </c>
       <c r="C95">
-        <v>-0.06790210315052557</v>
+        <v>0.07040957740569376</v>
       </c>
       <c r="D95">
-        <v>0.03813553987452774</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1582216585468814</v>
+      </c>
+      <c r="E95">
+        <v>-0.1271950187022302</v>
+      </c>
+      <c r="F95">
+        <v>-0.1797666400519828</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1948899490816227</v>
+        <v>-0.188439585216938</v>
       </c>
       <c r="C98">
-        <v>-0.01683140991942227</v>
+        <v>0.04171345078487632</v>
       </c>
       <c r="D98">
-        <v>0.04846953514591029</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1764163800731442</v>
+      </c>
+      <c r="E98">
+        <v>-0.1571480735826621</v>
+      </c>
+      <c r="F98">
+        <v>0.04533945705568698</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.007676324294994431</v>
+        <v>-0.006047004295948858</v>
       </c>
       <c r="C101">
-        <v>-0.02612756780478422</v>
+        <v>0.02611709347699023</v>
       </c>
       <c r="D101">
-        <v>-0.01628147339657229</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02149047239528816</v>
+      </c>
+      <c r="E101">
+        <v>0.02834216321047733</v>
+      </c>
+      <c r="F101">
+        <v>-0.08925565839326922</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1221010797827021</v>
+        <v>-0.1233712687685978</v>
       </c>
       <c r="C102">
-        <v>-0.07456579941396807</v>
+        <v>0.1003423669640228</v>
       </c>
       <c r="D102">
-        <v>-0.03101583342393735</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05089324915740231</v>
+      </c>
+      <c r="E102">
+        <v>-0.00755166628372292</v>
+      </c>
+      <c r="F102">
+        <v>-0.03914856727451028</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
